--- a/biology/Zoologie/Doré_de_Saxe/Doré_de_Saxe.xlsx
+++ b/biology/Zoologie/Doré_de_Saxe/Doré_de_Saxe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dor%C3%A9_de_Saxe</t>
+          <t>Doré_de_Saxe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le doré de saxe (Sachsengold) est un lapin de petite race peu répandu, originaire de Saxe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dor%C3%A9_de_Saxe</t>
+          <t>Doré_de_Saxe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est apparu en 1953 en Allemagne de l'Est, après des décennies de sélection, entreprise au départ par Richard Beunack[1], habitant de Röhrsdorf et poursuivie par son fils ; il est issu d'un croisement entre le lapin fauve et le lapin feu noir[2]. Cette race a été admise au standard allemand en 1961 et au standard français en 1984[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est apparu en 1953 en Allemagne de l'Est, après des décennies de sélection, entreprise au départ par Richard Beunack, habitant de Röhrsdorf et poursuivie par son fils ; il est issu d'un croisement entre le lapin fauve et le lapin feu noir. Cette race a été admise au standard allemand en 1961 et au standard français en 1984.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dor%C3%A9_de_Saxe</t>
+          <t>Doré_de_Saxe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On peut le reconnaître grâce à sa couleur rouge/or lumineux, le dessous du corps étant un plus pâle et mat[3].
-Ses oreilles, très consistantes et velues, mesurent entre 8 et 10 cm, et iIdéalement entre 8,5 et 9,5 cm[1].     
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut le reconnaître grâce à sa couleur rouge/or lumineux, le dessous du corps étant un plus pâle et mat.
+Ses oreilles, très consistantes et velues, mesurent entre 8 et 10 cm, et iIdéalement entre 8,5 et 9,5 cm.     
 Sa fourrure est dense et assez lustrée.     
 Son corps est court, trapu et arrondi, et il a une petite tête courte, forte et large chez le mâle, et plus fine chez la femelle.  
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dor%C3%A9_de_Saxe</t>
+          <t>Doré_de_Saxe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Élevage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'âge de reproduction se situe vers 7 à 9 mois  
 Maladie génétique connue : prognathisme mandibulaire  
